--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3307900.946080763</v>
+        <v>3305648.866369555</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>124.2781875329321</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>401.5764851263148</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292581</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881757</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868248029</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734097067</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>75.32106881022246</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>83.32727861849743</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>50.10896315666861</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.49213595231191</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1060,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>98.54353158087494</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>117.4014735002811</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>398.0723881337402</v>
+        <v>170.7304930065936</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>72.08802744677259</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>62.33347093294554</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1376,16 +1376,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.93037007226</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>108.2950343703258</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893622</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560513</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428172</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2005,16 +2005,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.01576915440816</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,13 +2482,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>42.14967908986335</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>53.11937003877873</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>130.5513683573768</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>91.89996056624796</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>161.5330709997914</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3272,13 +3272,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3433,16 +3433,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444125</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3898,10 +3898,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>104.8913819999782</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972916</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4144,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1763464053466</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2038.144201386632</v>
+        <v>1311.909787855442</v>
       </c>
       <c r="C2" t="n">
-        <v>1669.181684446221</v>
+        <v>1311.909787855442</v>
       </c>
       <c r="D2" t="n">
-        <v>1310.91598583947</v>
+        <v>953.6440892486919</v>
       </c>
       <c r="E2" t="n">
-        <v>925.127733241226</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>514.1418284516185</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839474</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321835</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912093</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939511</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.30239329669</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052373</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609175</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136271</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520493</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794329</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450758</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450754</v>
+        <v>2071.975386180644</v>
       </c>
       <c r="X2" t="n">
-        <v>2424.744041450754</v>
+        <v>1698.509627919564</v>
       </c>
       <c r="Y2" t="n">
-        <v>2424.744041450754</v>
+        <v>1698.509627919564</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811116</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999846</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387333</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332778</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601628</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927809</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064845</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321835</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031485</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158143</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.428070438131</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992586</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410641</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886744</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533344</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125859</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619339</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297195</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431611</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199868</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471666</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266134</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.75919150118</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>754.9746608886195</v>
+        <v>66.5121164321835</v>
       </c>
       <c r="C4" t="n">
-        <v>754.9746608886195</v>
+        <v>66.5121164321835</v>
       </c>
       <c r="D4" t="n">
-        <v>604.8580214762837</v>
+        <v>66.5121164321835</v>
       </c>
       <c r="E4" t="n">
-        <v>456.9449278938906</v>
+        <v>66.5121164321835</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321835</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321835</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321835</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321835</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962307</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372936</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596511</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588492</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886969</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068869</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596458</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181867</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181867</v>
       </c>
       <c r="S4" t="n">
-        <v>754.9746608886195</v>
+        <v>729.2011216450131</v>
       </c>
       <c r="T4" t="n">
-        <v>754.9746608886195</v>
+        <v>645.0321533435006</v>
       </c>
       <c r="U4" t="n">
-        <v>754.9746608886195</v>
+        <v>355.9292864691441</v>
       </c>
       <c r="V4" t="n">
-        <v>754.9746608886195</v>
+        <v>355.9292864691441</v>
       </c>
       <c r="W4" t="n">
-        <v>754.9746608886195</v>
+        <v>66.5121164321835</v>
       </c>
       <c r="X4" t="n">
-        <v>754.9746608886195</v>
+        <v>66.5121164321835</v>
       </c>
       <c r="Y4" t="n">
-        <v>754.9746608886195</v>
+        <v>66.5121164321835</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1274.539111149741</v>
+        <v>1257.755181644084</v>
       </c>
       <c r="C5" t="n">
-        <v>905.5765942093292</v>
+        <v>888.7926647036722</v>
       </c>
       <c r="D5" t="n">
-        <v>547.3108956025787</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="E5" t="n">
-        <v>547.3108956025787</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
         <v>523.5814653477182</v>
@@ -4562,16 +4562,16 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
@@ -4580,37 +4580,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
         <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450754</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X5" t="n">
-        <v>2051.278283189674</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="Y5" t="n">
-        <v>1661.138951213863</v>
+        <v>1308.370295943749</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>313.9641308033391</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="C7" t="n">
-        <v>313.9641308033391</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="D7" t="n">
-        <v>313.9641308033391</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="E7" t="n">
-        <v>166.051037220946</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962293</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588486</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886962</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S7" t="n">
-        <v>831.0565485757129</v>
+        <v>729.2011216450119</v>
       </c>
       <c r="T7" t="n">
-        <v>831.0565485757129</v>
+        <v>729.2011216450119</v>
       </c>
       <c r="U7" t="n">
-        <v>541.9536817013565</v>
+        <v>610.613774675031</v>
       </c>
       <c r="V7" t="n">
-        <v>541.9536817013565</v>
+        <v>355.9292864691441</v>
       </c>
       <c r="W7" t="n">
-        <v>541.9536817013565</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="X7" t="n">
-        <v>313.9641308033391</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="Y7" t="n">
-        <v>313.9641308033391</v>
+        <v>66.51211643218345</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2034.604709474941</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="C8" t="n">
-        <v>1665.642192534529</v>
+        <v>1329.547110979149</v>
       </c>
       <c r="D8" t="n">
-        <v>1307.376493927779</v>
+        <v>971.2814123723988</v>
       </c>
       <c r="E8" t="n">
-        <v>921.5882413295346</v>
+        <v>585.4931597741545</v>
       </c>
       <c r="F8" t="n">
-        <v>510.6023365399271</v>
+        <v>578.547659024951</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839474</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450753</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X8" t="n">
-        <v>2424.744041450753</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="Y8" t="n">
-        <v>2034.604709474941</v>
+        <v>1698.509627919561</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G9" t="n">
         <v>176.0213023927779</v>
@@ -4878,19 +4878,19 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992583</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962296</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596508</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588487</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886963</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068862</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.966238459645</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757138</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>639.3706644025402</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>639.3706644025402</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>350.2677975281838</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181849</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181849</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218345</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5033,58 +5033,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756264</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468469</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962605</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143763</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400703</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121634</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121634</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121634</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121634</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138402</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.50206557031</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
     <row r="14">
@@ -5258,67 +5258,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797183</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191923</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191923</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969311</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5413,34 +5413,34 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192599</v>
@@ -5534,31 +5534,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797186</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5713,10 +5713,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1051.338974243769</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="20">
@@ -5738,19 +5738,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5829,19 +5829,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>231.7628415621006</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5969,46 +5969,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,10 +6060,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6078,16 +6078,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6251,25 +6251,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6443,13 +6443,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>599.6019060180513</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>449.4852666057155</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4852666057155</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>449.4852666057155</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6655,16 +6655,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6689,10 +6689,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>707.672526468518</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406111</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1338.103121340305</v>
+        <v>1270.536647467212</v>
       </c>
       <c r="X34" t="n">
-        <v>1110.113570442288</v>
+        <v>1042.547096569194</v>
       </c>
       <c r="Y34" t="n">
-        <v>889.3209912987577</v>
+        <v>821.7545174256642</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111711</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2546.729326731942</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7081,16 +7081,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7148,40 +7148,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192592</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7199,25 +7199,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745237</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>407.9027098310023</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
         <v>407.9027098310023</v>
@@ -7606,13 +7606,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7713,28 +7713,28 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797183</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797183</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797183</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188007</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057737</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490404</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>57.22910392194309</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
     </row>
     <row r="14">
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>44.73700564187206</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194217</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23893,16 +23893,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>133.693886234629</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>28.95742156328143</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24370,13 +24370,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>183.5599762991738</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>34.97276993489206</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>125.5054897610403</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>124.9899273367996</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>43.26526345294985</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,10 +25786,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>62.35543909864963</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>210.9709121168618</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>57.22910392194169</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>700713.2648968009</v>
+        <v>700713.2648968007</v>
       </c>
     </row>
     <row r="15">
@@ -26320,40 +26320,40 @@
         <v>738937.5928778554</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="F2" t="n">
+        <v>726431.939721005</v>
+      </c>
+      <c r="G2" t="n">
         <v>726431.9397210052</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="I2" t="n">
         <v>726431.9397210053</v>
-      </c>
-      <c r="H2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="I2" t="n">
-        <v>726431.9397210054</v>
       </c>
       <c r="J2" t="n">
         <v>726431.9397210052</v>
       </c>
       <c r="K2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="L2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="M2" t="n">
         <v>726431.9397210055</v>
-      </c>
-      <c r="L2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="M2" t="n">
-        <v>726431.9397210056</v>
       </c>
       <c r="N2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="O2" t="n">
-        <v>726431.9397210056</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.939721005</v>
+        <v>726431.9397210053</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727594</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073547</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972777</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551169</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405222</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405246</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405246</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687975</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687977</v>
+        <v>15436.64000687969</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687973</v>
+        <v>15436.64000687969</v>
       </c>
       <c r="H4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15436.64000687969</v>
+      </c>
+      <c r="J4" t="n">
+        <v>15436.6400068797</v>
+      </c>
+      <c r="K4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="L4" t="n">
         <v>15436.64000687966</v>
       </c>
-      <c r="I4" t="n">
-        <v>15436.64000687971</v>
-      </c>
-      <c r="J4" t="n">
-        <v>15436.64000687967</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>15436.64000687969</v>
       </c>
-      <c r="L4" t="n">
-        <v>15436.64000687967</v>
-      </c>
-      <c r="M4" t="n">
-        <v>15436.64000687973</v>
-      </c>
       <c r="N4" t="n">
-        <v>15436.64000687972</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="O4" t="n">
         <v>15436.64000687966</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>107933.9405613934</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-791337.8375151829</v>
+        <v>-791337.8375151841</v>
       </c>
       <c r="C6" t="n">
-        <v>537406.9082124091</v>
+        <v>537406.9082124101</v>
       </c>
       <c r="D6" t="n">
-        <v>537406.9082124096</v>
+        <v>537406.9082124094</v>
       </c>
       <c r="E6" t="n">
-        <v>284460.308082864</v>
+        <v>284425.5701574281</v>
       </c>
       <c r="F6" t="n">
-        <v>609872.769890218</v>
+        <v>609838.0319647826</v>
       </c>
       <c r="G6" t="n">
-        <v>609872.7698902185</v>
+        <v>609838.0319647827</v>
       </c>
       <c r="H6" t="n">
-        <v>609872.7698902184</v>
+        <v>609838.031964783</v>
       </c>
       <c r="I6" t="n">
-        <v>609872.7698902186</v>
+        <v>609838.0319647829</v>
       </c>
       <c r="J6" t="n">
-        <v>392341.5674929408</v>
+        <v>392306.829567505</v>
       </c>
       <c r="K6" t="n">
-        <v>609872.7698902187</v>
+        <v>609838.031964783</v>
       </c>
       <c r="L6" t="n">
-        <v>609872.7698902186</v>
+        <v>609838.0319647827</v>
       </c>
       <c r="M6" t="n">
-        <v>524817.7419547072</v>
+        <v>524783.0040292714</v>
       </c>
       <c r="N6" t="n">
-        <v>609872.7698902185</v>
+        <v>609838.0319647829</v>
       </c>
       <c r="O6" t="n">
-        <v>609872.7698902189</v>
+        <v>609838.031964783</v>
       </c>
       <c r="P6" t="n">
-        <v>609872.7698902182</v>
+        <v>609838.0319647829</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022938</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
         <v>278.198799748375</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022938</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022935</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022938</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>257.6521825393297</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>9.345240527138685</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27540,22 +27540,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983805</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004726</v>
       </c>
       <c r="S4" t="n">
-        <v>114.4479565212194</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>136.2216706576718</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>332.624878506812</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,7 +27625,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>383.3839097893995</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27676,7 +27676,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27780,10 +27780,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>46.8775164420563</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>168.8103647053318</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>12.84933751971323</v>
+        <v>240.1912326468599</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>107.7439527351647</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>189.8041723908825</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29992,13 +29992,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681602</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844671</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974801</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953992</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003815</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.35652936232</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490575</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009503</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099066</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746419</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781694</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563571</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806959</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451122</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345281</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502568</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798533</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752264</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.461131202644</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.95656191388</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.928301823348</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837929</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002931</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987489</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.5396634623832</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898506</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462217</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,46 +31197,46 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430539</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311881</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742024</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702026</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098822</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316435</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883117</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086003</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802171</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895882</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712223</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553039</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112303</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I8" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837908</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.883274947307</v>
+        <v>422.1299181110993</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071782</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565776</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,40 +32072,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>402.2342772868842</v>
       </c>
       <c r="M15" t="n">
-        <v>433.9798411722595</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32318,10 +32318,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,10 +32330,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32494,7 +32494,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -32549,22 +32549,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>429.5828357723605</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>681.5735157229393</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>188.4731159523455</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,10 +33652,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>152.0754244981388</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,22 +33968,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34150,7 +34150,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>277.2922978908106</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687129</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554009</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923327</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302273</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129122</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882198</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193723</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037199</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222501</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.6235045359773</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340058</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013296</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004597</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.112403452581</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859628</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127274</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.942175290343</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966724</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286439</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840385</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230785</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567575</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106953</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014234</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M7" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004575</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034295</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966713</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840383</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106942</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014226</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674328</v>
+        <v>283.5755383312251</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238449</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121332</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>263.67989750701</v>
       </c>
       <c r="M15" t="n">
-        <v>291.8458072502411</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35966,10 +35966,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,10 +35978,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,22 +36197,22 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>550.231803639606</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,10 +37300,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>6.39592053417488</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,22 +37616,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
